--- a/database/industries/darou/delor/product/quarterly.xlsx
+++ b/database/industries/darou/delor/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E4174C-35C8-4296-9948-5D1D55ACAB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6FA2AE-0B80-4C0C-B5D4-D0A74A9400D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="56">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>شربت</t>
@@ -647,12 +647,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -667,7 +667,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -716,7 +716,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -765,7 +765,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,7 +802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -817,7 +817,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -856,7 +856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -895,7 +895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -934,7 +934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -943,37 +943,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>3196660</v>
+        <v>3550051</v>
       </c>
       <c r="F13" s="11">
-        <v>3550051</v>
+        <v>956648</v>
       </c>
       <c r="G13" s="11">
-        <v>956648</v>
+        <v>2078841</v>
       </c>
       <c r="H13" s="11">
-        <v>2078841</v>
+        <v>796155</v>
       </c>
       <c r="I13" s="11">
-        <v>796155</v>
+        <v>-2874996</v>
       </c>
       <c r="J13" s="11">
-        <v>-2874996</v>
+        <v>12212167</v>
       </c>
       <c r="K13" s="11">
-        <v>12212167</v>
+        <v>4778247</v>
       </c>
       <c r="L13" s="11">
-        <v>4778247</v>
+        <v>2842059</v>
       </c>
       <c r="M13" s="11">
-        <v>2842059</v>
+        <v>2924955</v>
       </c>
       <c r="N13" s="11">
-        <v>2924955</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3419692</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -982,11 +982,11 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
         <v>4630885</v>
       </c>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G14" s="9" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1023,35 +1023,35 @@
       <c r="E15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>17</v>
+      <c r="F15" s="11">
+        <v>6625480</v>
       </c>
       <c r="G15" s="11">
-        <v>6625480</v>
+        <v>1253145</v>
       </c>
       <c r="H15" s="11">
-        <v>1253145</v>
+        <v>-1253145</v>
       </c>
       <c r="I15" s="11">
-        <v>-1253145</v>
+        <v>0</v>
       </c>
       <c r="J15" s="11">
-        <v>0</v>
+        <v>12741100</v>
       </c>
       <c r="K15" s="11">
-        <v>12741100</v>
+        <v>2096120</v>
       </c>
       <c r="L15" s="11">
-        <v>2096120</v>
+        <v>3444083</v>
       </c>
       <c r="M15" s="11">
-        <v>3444083</v>
+        <v>5714344</v>
       </c>
       <c r="N15" s="11">
-        <v>5714344</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1118390</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1060,37 +1060,37 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>305159565</v>
+        <v>286036149</v>
       </c>
       <c r="F16" s="9">
-        <v>286036149</v>
+        <v>249510467</v>
       </c>
       <c r="G16" s="9">
-        <v>249510467</v>
+        <v>194850255</v>
       </c>
       <c r="H16" s="9">
-        <v>194850255</v>
+        <v>211876112</v>
       </c>
       <c r="I16" s="9">
-        <v>211876112</v>
+        <v>-406726367</v>
       </c>
       <c r="J16" s="9">
-        <v>-406726367</v>
+        <v>864482615</v>
       </c>
       <c r="K16" s="9">
-        <v>864482615</v>
+        <v>181632636</v>
       </c>
       <c r="L16" s="9">
-        <v>181632636</v>
+        <v>241418651</v>
       </c>
       <c r="M16" s="9">
-        <v>241418651</v>
+        <v>255040042</v>
       </c>
       <c r="N16" s="9">
-        <v>255040042</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>243841235</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>37</v>
       </c>
@@ -1612,8 +1612,8 @@
       <c r="G30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>17</v>
+      <c r="H30" s="9">
+        <v>0</v>
       </c>
       <c r="I30" s="9">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>38</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>39</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>40</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>41</v>
       </c>
@@ -1760,37 +1760,37 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
-        <v>39140156</v>
+        <v>39320076</v>
       </c>
       <c r="F34" s="9">
-        <v>39320076</v>
+        <v>38872458</v>
       </c>
       <c r="G34" s="9">
-        <v>38872458</v>
+        <v>33700062</v>
       </c>
       <c r="H34" s="9">
-        <v>33700062</v>
+        <v>38121006</v>
       </c>
       <c r="I34" s="9">
-        <v>38121006</v>
+        <v>-71821068</v>
       </c>
       <c r="J34" s="9">
-        <v>-71821068</v>
+        <v>153655489</v>
       </c>
       <c r="K34" s="9">
-        <v>153655489</v>
+        <v>31771794</v>
       </c>
       <c r="L34" s="9">
-        <v>31771794</v>
+        <v>44008087</v>
       </c>
       <c r="M34" s="9">
-        <v>44008087</v>
+        <v>40058464</v>
       </c>
       <c r="N34" s="9">
-        <v>40058464</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>34007147</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>42</v>
       </c>
@@ -1799,74 +1799,74 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>24944320</v>
+        <v>24059650</v>
       </c>
       <c r="F35" s="11">
-        <v>24059650</v>
+        <v>23514008</v>
       </c>
       <c r="G35" s="11">
-        <v>23514008</v>
+        <v>8504232</v>
       </c>
       <c r="H35" s="11">
-        <v>8504232</v>
+        <v>11304192</v>
       </c>
       <c r="I35" s="11">
-        <v>11304192</v>
+        <v>-19808424</v>
       </c>
       <c r="J35" s="11">
-        <v>-19808424</v>
+        <v>60664489</v>
       </c>
       <c r="K35" s="11">
-        <v>60664489</v>
+        <v>19152426</v>
       </c>
       <c r="L35" s="11">
-        <v>19152426</v>
+        <v>20387879</v>
       </c>
       <c r="M35" s="11">
-        <v>20387879</v>
+        <v>18682316</v>
       </c>
       <c r="N35" s="11">
-        <v>18682316</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21129068</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>372440701</v>
+        <v>357596811</v>
       </c>
       <c r="F36" s="13">
-        <v>357596811</v>
+        <v>319479061</v>
       </c>
       <c r="G36" s="13">
-        <v>319479061</v>
+        <v>240386535</v>
       </c>
       <c r="H36" s="13">
-        <v>240386535</v>
+        <v>260844320</v>
       </c>
       <c r="I36" s="13">
-        <v>260844320</v>
+        <v>-501230855</v>
       </c>
       <c r="J36" s="13">
-        <v>-501230855</v>
+        <v>1103755860</v>
       </c>
       <c r="K36" s="13">
-        <v>1103755860</v>
+        <v>239431223</v>
       </c>
       <c r="L36" s="13">
-        <v>239431223</v>
+        <v>312100759</v>
       </c>
       <c r="M36" s="13">
-        <v>312100759</v>
+        <v>322420121</v>
       </c>
       <c r="N36" s="13">
-        <v>322420121</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>303515532</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1881,7 +1881,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1896,7 +1896,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1911,7 +1911,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>44</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1963,7 +1963,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>15</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>18</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>19</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>20</v>
       </c>
@@ -2089,37 +2089,37 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>3595011</v>
+        <v>4320179</v>
       </c>
       <c r="F45" s="11">
-        <v>4320179</v>
+        <v>1741908</v>
       </c>
       <c r="G45" s="11">
-        <v>1741908</v>
+        <v>2892164</v>
       </c>
       <c r="H45" s="11">
-        <v>2892164</v>
+        <v>3786657</v>
       </c>
       <c r="I45" s="11">
-        <v>3786657</v>
-      </c>
-      <c r="J45" s="11">
         <v>5042567</v>
       </c>
-      <c r="K45" s="11" t="s">
-        <v>17</v>
+      <c r="J45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="11">
+        <v>7186808</v>
       </c>
       <c r="L45" s="11">
-        <v>7186808</v>
+        <v>3911529</v>
       </c>
       <c r="M45" s="11">
-        <v>3911529</v>
+        <v>2644512</v>
       </c>
       <c r="N45" s="11">
-        <v>2644512</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3199772</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>21</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>22</v>
       </c>
@@ -2179,25 +2179,25 @@
         <v>0</v>
       </c>
       <c r="I47" s="11">
-        <v>0</v>
-      </c>
-      <c r="J47" s="11">
         <v>6637814</v>
       </c>
-      <c r="K47" s="11" t="s">
-        <v>17</v>
+      <c r="J47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="11">
+        <v>3277059</v>
       </c>
       <c r="L47" s="11">
-        <v>3277059</v>
+        <v>3337839</v>
       </c>
       <c r="M47" s="11">
-        <v>3337839</v>
+        <v>4823567</v>
       </c>
       <c r="N47" s="11">
-        <v>4823567</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2669151</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>45</v>
       </c>
@@ -2208,8 +2208,8 @@
       <c r="E48" s="9">
         <v>0</v>
       </c>
-      <c r="F48" s="9">
-        <v>0</v>
+      <c r="F48" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>17</v>
@@ -2236,7 +2236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>45</v>
       </c>
@@ -2247,14 +2247,14 @@
       <c r="E49" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>17</v>
+      <c r="F49" s="11">
+        <v>0</v>
       </c>
       <c r="G49" s="11">
         <v>0</v>
       </c>
-      <c r="H49" s="11">
-        <v>0</v>
+      <c r="H49" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>17</v>
@@ -2275,7 +2275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>23</v>
       </c>
@@ -2284,37 +2284,37 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>305356825</v>
+        <v>254796228</v>
       </c>
       <c r="F50" s="9">
-        <v>254796228</v>
+        <v>154789519</v>
       </c>
       <c r="G50" s="9">
-        <v>154789519</v>
+        <v>188863284</v>
       </c>
       <c r="H50" s="9">
-        <v>188863284</v>
+        <v>236183018</v>
       </c>
       <c r="I50" s="9">
-        <v>236183018</v>
-      </c>
-      <c r="J50" s="9">
         <v>353525109</v>
       </c>
-      <c r="K50" s="9" t="s">
-        <v>17</v>
+      <c r="J50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="9">
+        <v>256241454</v>
       </c>
       <c r="L50" s="9">
-        <v>256241454</v>
+        <v>243095578</v>
       </c>
       <c r="M50" s="9">
-        <v>243095578</v>
+        <v>265451969</v>
       </c>
       <c r="N50" s="9">
-        <v>265451969</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>172657976</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>24</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>25</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>26</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>27</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>28</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>29</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>30</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>31</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>32</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>33</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>34</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>35</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>36</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>37</v>
       </c>
@@ -2842,11 +2842,11 @@
       <c r="I64" s="9">
         <v>0</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="9">
         <v>0</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="L64" s="9">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>38</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>39</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>40</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>47</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>41</v>
       </c>
@@ -3023,37 +3023,37 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>34907787</v>
+        <v>37042180</v>
       </c>
       <c r="F69" s="11">
-        <v>37042180</v>
+        <v>26555937</v>
       </c>
       <c r="G69" s="11">
-        <v>26555937</v>
+        <v>40169525</v>
       </c>
       <c r="H69" s="11">
-        <v>40169525</v>
+        <v>46257592</v>
       </c>
       <c r="I69" s="11">
-        <v>46257592</v>
-      </c>
-      <c r="J69" s="11">
         <v>50444136</v>
       </c>
-      <c r="K69" s="11" t="s">
-        <v>17</v>
+      <c r="J69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="11">
+        <v>40569678</v>
       </c>
       <c r="L69" s="11">
-        <v>40569678</v>
+        <v>36338378</v>
       </c>
       <c r="M69" s="11">
-        <v>36338378</v>
+        <v>47837026</v>
       </c>
       <c r="N69" s="11">
-        <v>47837026</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>25694647</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>42</v>
       </c>
@@ -3062,74 +3062,74 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
-        <v>20672290</v>
+        <v>22568161</v>
       </c>
       <c r="F70" s="9">
-        <v>22568161</v>
+        <v>15422344</v>
       </c>
       <c r="G70" s="9">
-        <v>15422344</v>
+        <v>11401056</v>
       </c>
       <c r="H70" s="9">
-        <v>11401056</v>
+        <v>17619968</v>
       </c>
       <c r="I70" s="9">
-        <v>17619968</v>
-      </c>
-      <c r="J70" s="9">
         <v>24926759</v>
       </c>
-      <c r="K70" s="9" t="s">
-        <v>17</v>
+      <c r="J70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="9">
+        <v>23221385</v>
       </c>
       <c r="L70" s="9">
-        <v>23221385</v>
+        <v>19140350</v>
       </c>
       <c r="M70" s="9">
-        <v>19140350</v>
+        <v>18287645</v>
       </c>
       <c r="N70" s="9">
-        <v>18287645</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13696896</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>364531913</v>
+        <v>318726748</v>
       </c>
       <c r="F71" s="15">
-        <v>318726748</v>
+        <v>198509708</v>
       </c>
       <c r="G71" s="15">
-        <v>198509708</v>
+        <v>243326029</v>
       </c>
       <c r="H71" s="15">
-        <v>243326029</v>
+        <v>303847235</v>
       </c>
       <c r="I71" s="15">
-        <v>303847235</v>
+        <v>440576385</v>
       </c>
       <c r="J71" s="15">
-        <v>440576385</v>
+        <v>0</v>
       </c>
       <c r="K71" s="15">
-        <v>0</v>
+        <v>330496384</v>
       </c>
       <c r="L71" s="15">
-        <v>330496384</v>
+        <v>305823674</v>
       </c>
       <c r="M71" s="15">
-        <v>305823674</v>
+        <v>339044719</v>
       </c>
       <c r="N71" s="15">
-        <v>339044719</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>217918442</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3144,7 +3144,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3159,7 +3159,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3174,7 +3174,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>48</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3226,7 +3226,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>15</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>18</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>19</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>20</v>
       </c>
@@ -3352,37 +3352,37 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>281200</v>
+        <v>415402</v>
       </c>
       <c r="F80" s="11">
-        <v>415402</v>
+        <v>223696</v>
       </c>
       <c r="G80" s="11">
-        <v>223696</v>
+        <v>330538</v>
       </c>
       <c r="H80" s="11">
-        <v>330538</v>
+        <v>448917</v>
       </c>
       <c r="I80" s="11">
-        <v>448917</v>
-      </c>
-      <c r="J80" s="11">
         <v>477699</v>
       </c>
-      <c r="K80" s="11" t="s">
-        <v>17</v>
+      <c r="J80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="11">
+        <v>762026</v>
       </c>
       <c r="L80" s="11">
-        <v>762026</v>
+        <v>570015</v>
       </c>
       <c r="M80" s="11">
-        <v>570015</v>
+        <v>510924</v>
       </c>
       <c r="N80" s="11">
-        <v>510924</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>710352</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>21</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>22</v>
       </c>
@@ -3430,37 +3430,37 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>89382</v>
+        <v>62413</v>
       </c>
       <c r="F82" s="11">
-        <v>62413</v>
+        <v>74733</v>
       </c>
       <c r="G82" s="11">
-        <v>74733</v>
+        <v>65508</v>
       </c>
       <c r="H82" s="11">
-        <v>65508</v>
+        <v>103918</v>
       </c>
       <c r="I82" s="11">
-        <v>103918</v>
-      </c>
-      <c r="J82" s="11">
         <v>73709</v>
       </c>
-      <c r="K82" s="11" t="s">
-        <v>17</v>
+      <c r="J82" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="11">
+        <v>83488</v>
       </c>
       <c r="L82" s="11">
-        <v>83488</v>
+        <v>80943</v>
       </c>
       <c r="M82" s="11">
-        <v>80943</v>
+        <v>99886</v>
       </c>
       <c r="N82" s="11">
-        <v>99886</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>114342</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3477,8 @@
       <c r="G83" s="9">
         <v>0</v>
       </c>
-      <c r="H83" s="9">
-        <v>0</v>
+      <c r="H83" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>17</v>
@@ -3499,7 +3499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>23</v>
       </c>
@@ -3508,37 +3508,37 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>560921</v>
+        <v>711169</v>
       </c>
       <c r="F84" s="11">
-        <v>711169</v>
+        <v>434497</v>
       </c>
       <c r="G84" s="11">
-        <v>434497</v>
+        <v>583765</v>
       </c>
       <c r="H84" s="11">
-        <v>583765</v>
+        <v>716059</v>
       </c>
       <c r="I84" s="11">
-        <v>716059</v>
-      </c>
-      <c r="J84" s="11">
         <v>1286635</v>
       </c>
-      <c r="K84" s="11" t="s">
-        <v>17</v>
+      <c r="J84" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="11">
+        <v>977827</v>
       </c>
       <c r="L84" s="11">
-        <v>977827</v>
+        <v>1256089</v>
       </c>
       <c r="M84" s="11">
-        <v>1256089</v>
+        <v>1610769</v>
       </c>
       <c r="N84" s="11">
-        <v>1610769</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1163183</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>25</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>26</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>27</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>28</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>29</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>30</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>31</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>32</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>33</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>34</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>35</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>36</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>37</v>
       </c>
@@ -4068,11 +4068,11 @@
       <c r="I98" s="11">
         <v>0</v>
       </c>
-      <c r="J98" s="11">
+      <c r="J98" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="11">
         <v>0</v>
-      </c>
-      <c r="K98" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="L98" s="11">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>38</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>39</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>40</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>47</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>41</v>
       </c>
@@ -4249,37 +4249,37 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>1228624</v>
+        <v>1304711</v>
       </c>
       <c r="F103" s="9">
-        <v>1304711</v>
+        <v>1159389</v>
       </c>
       <c r="G103" s="9">
-        <v>1159389</v>
+        <v>1704825</v>
       </c>
       <c r="H103" s="9">
-        <v>1704825</v>
+        <v>6383684</v>
       </c>
       <c r="I103" s="9">
-        <v>6383684</v>
-      </c>
-      <c r="J103" s="9">
         <v>3569855</v>
       </c>
-      <c r="K103" s="9" t="s">
-        <v>17</v>
+      <c r="J103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="9">
+        <v>2879969</v>
       </c>
       <c r="L103" s="9">
-        <v>2879969</v>
+        <v>3161597</v>
       </c>
       <c r="M103" s="9">
-        <v>3161597</v>
+        <v>3567386</v>
       </c>
       <c r="N103" s="9">
-        <v>3567386</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2945903</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>42</v>
       </c>
@@ -4288,74 +4288,74 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>604889</v>
+        <v>409734</v>
       </c>
       <c r="F104" s="11">
-        <v>409734</v>
+        <v>462689</v>
       </c>
       <c r="G104" s="11">
-        <v>462689</v>
+        <v>509809</v>
       </c>
       <c r="H104" s="11">
-        <v>509809</v>
+        <v>802249</v>
       </c>
       <c r="I104" s="11">
-        <v>802249</v>
-      </c>
-      <c r="J104" s="11">
         <v>764624</v>
       </c>
-      <c r="K104" s="11" t="s">
-        <v>17</v>
+      <c r="J104" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" s="11">
+        <v>926235</v>
       </c>
       <c r="L104" s="11">
-        <v>926235</v>
+        <v>1154960</v>
       </c>
       <c r="M104" s="11">
-        <v>1154960</v>
+        <v>1238276</v>
       </c>
       <c r="N104" s="11">
-        <v>1238276</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1506535</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13">
-        <v>2765016</v>
+        <v>2903429</v>
       </c>
       <c r="F105" s="13">
-        <v>2903429</v>
+        <v>2355004</v>
       </c>
       <c r="G105" s="13">
-        <v>2355004</v>
+        <v>3194445</v>
       </c>
       <c r="H105" s="13">
-        <v>3194445</v>
+        <v>8454827</v>
       </c>
       <c r="I105" s="13">
-        <v>8454827</v>
+        <v>6172522</v>
       </c>
       <c r="J105" s="13">
-        <v>6172522</v>
+        <v>0</v>
       </c>
       <c r="K105" s="13">
-        <v>0</v>
+        <v>5629545</v>
       </c>
       <c r="L105" s="13">
-        <v>5629545</v>
+        <v>6223604</v>
       </c>
       <c r="M105" s="13">
-        <v>6223604</v>
+        <v>7027241</v>
       </c>
       <c r="N105" s="13">
-        <v>7027241</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6440315</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4370,7 +4370,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4385,7 +4385,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4400,7 +4400,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B109" s="7" t="s">
         <v>50</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4452,7 +4452,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>15</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>18</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>19</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>20</v>
       </c>
@@ -4578,37 +4578,37 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>78220</v>
+        <v>96154</v>
       </c>
       <c r="F114" s="11">
-        <v>96154</v>
+        <v>128420</v>
       </c>
       <c r="G114" s="11">
-        <v>128420</v>
+        <v>114287</v>
       </c>
       <c r="H114" s="11">
-        <v>114287</v>
+        <v>118552</v>
       </c>
       <c r="I114" s="11">
-        <v>118552</v>
+        <v>94733</v>
       </c>
       <c r="J114" s="11">
-        <v>94733</v>
+        <v>103408</v>
       </c>
       <c r="K114" s="11">
-        <v>103408</v>
+        <v>106031</v>
       </c>
       <c r="L114" s="11">
-        <v>106031</v>
+        <v>145727</v>
       </c>
       <c r="M114" s="11">
-        <v>145727</v>
+        <v>193202</v>
       </c>
       <c r="N114" s="11">
-        <v>193202</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>222001</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>21</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>22</v>
       </c>
@@ -4667,26 +4667,26 @@
       <c r="H116" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I116" s="11" t="s">
-        <v>17</v>
+      <c r="I116" s="11">
+        <v>11104</v>
       </c>
       <c r="J116" s="11">
-        <v>11104</v>
+        <v>13957</v>
       </c>
       <c r="K116" s="11">
-        <v>13957</v>
+        <v>25477</v>
       </c>
       <c r="L116" s="11">
-        <v>25477</v>
+        <v>24250</v>
       </c>
       <c r="M116" s="11">
-        <v>24250</v>
+        <v>20708</v>
       </c>
       <c r="N116" s="11">
-        <v>20708</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>42838</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>45</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>23</v>
       </c>
@@ -4734,37 +4734,37 @@
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>1837</v>
+        <v>2791</v>
       </c>
       <c r="F118" s="11">
-        <v>2791</v>
+        <v>2807</v>
       </c>
       <c r="G118" s="11">
-        <v>2807</v>
+        <v>3091</v>
       </c>
       <c r="H118" s="11">
-        <v>3091</v>
+        <v>3032</v>
       </c>
       <c r="I118" s="11">
-        <v>3032</v>
+        <v>3639</v>
       </c>
       <c r="J118" s="11">
-        <v>3639</v>
+        <v>3011</v>
       </c>
       <c r="K118" s="11">
-        <v>3011</v>
+        <v>3816</v>
       </c>
       <c r="L118" s="11">
-        <v>3816</v>
+        <v>5167</v>
       </c>
       <c r="M118" s="11">
-        <v>5167</v>
+        <v>6068</v>
       </c>
       <c r="N118" s="11">
-        <v>6068</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6737</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>25</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>26</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>27</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>28</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>29</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>30</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>31</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>32</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>33</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>34</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>35</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>36</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>37</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>38</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>39</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>47</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>41</v>
       </c>
@@ -5397,37 +5397,37 @@
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>35196</v>
+        <v>35222</v>
       </c>
       <c r="F135" s="9">
-        <v>35222</v>
+        <v>43658</v>
       </c>
       <c r="G135" s="9">
-        <v>43658</v>
+        <v>42441</v>
       </c>
       <c r="H135" s="9">
-        <v>42441</v>
+        <v>138003</v>
       </c>
       <c r="I135" s="9">
-        <v>138003</v>
+        <v>70769</v>
       </c>
       <c r="J135" s="9">
-        <v>70769</v>
+        <v>51472</v>
       </c>
       <c r="K135" s="9">
-        <v>51472</v>
+        <v>70988</v>
       </c>
       <c r="L135" s="9">
-        <v>70988</v>
+        <v>87004</v>
       </c>
       <c r="M135" s="9">
-        <v>87004</v>
+        <v>74574</v>
       </c>
       <c r="N135" s="9">
-        <v>74574</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>114650</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>42</v>
       </c>
@@ -5436,37 +5436,37 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>29261</v>
+        <v>18155</v>
       </c>
       <c r="F136" s="11">
-        <v>18155</v>
+        <v>30001</v>
       </c>
       <c r="G136" s="11">
-        <v>30001</v>
+        <v>44716</v>
       </c>
       <c r="H136" s="11">
-        <v>44716</v>
+        <v>45531</v>
       </c>
       <c r="I136" s="11">
-        <v>45531</v>
+        <v>30675</v>
       </c>
       <c r="J136" s="11">
-        <v>30675</v>
+        <v>34628</v>
       </c>
       <c r="K136" s="11">
-        <v>34628</v>
+        <v>39887</v>
       </c>
       <c r="L136" s="11">
-        <v>39887</v>
+        <v>60342</v>
       </c>
       <c r="M136" s="11">
-        <v>60342</v>
+        <v>67711</v>
       </c>
       <c r="N136" s="11">
-        <v>67711</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>109991</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5481,7 +5481,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5496,7 +5496,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -5511,7 +5511,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B140" s="7" t="s">
         <v>54</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -5563,7 +5563,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>15</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>18</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>19</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>20</v>
       </c>
@@ -5689,37 +5689,37 @@
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11">
-        <v>-129052</v>
+        <v>-207225</v>
       </c>
       <c r="F145" s="11">
-        <v>-207225</v>
+        <v>-74156</v>
       </c>
       <c r="G145" s="11">
-        <v>-74156</v>
+        <v>-177923</v>
       </c>
       <c r="H145" s="11">
-        <v>-177923</v>
+        <v>-296592</v>
       </c>
       <c r="I145" s="11">
-        <v>-296592</v>
+        <v>-382749</v>
       </c>
       <c r="J145" s="11">
-        <v>-382749</v>
+        <v>-134908</v>
       </c>
       <c r="K145" s="11">
-        <v>-134908</v>
+        <v>-334978</v>
       </c>
       <c r="L145" s="11">
-        <v>-334978</v>
+        <v>-371833</v>
       </c>
       <c r="M145" s="11">
-        <v>-371833</v>
+        <v>-142972</v>
       </c>
       <c r="N145" s="11">
-        <v>-142972</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-532926</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>21</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>22</v>
       </c>
@@ -5767,37 +5767,37 @@
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11">
-        <v>-10664</v>
+        <v>-20607</v>
       </c>
       <c r="F147" s="11">
-        <v>-20607</v>
+        <v>-10283</v>
       </c>
       <c r="G147" s="11">
-        <v>-10283</v>
+        <v>-13102</v>
       </c>
       <c r="H147" s="11">
-        <v>-13102</v>
+        <v>-26440</v>
       </c>
       <c r="I147" s="11">
-        <v>-26440</v>
+        <v>-35567</v>
       </c>
       <c r="J147" s="11">
-        <v>-35567</v>
+        <v>45481</v>
       </c>
       <c r="K147" s="11">
-        <v>45481</v>
+        <v>-12523</v>
       </c>
       <c r="L147" s="11">
-        <v>-12523</v>
+        <v>-35142</v>
       </c>
       <c r="M147" s="11">
-        <v>-35142</v>
+        <v>-39559</v>
       </c>
       <c r="N147" s="11">
-        <v>-39559</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-29692</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>45</v>
       </c>
@@ -5814,8 +5814,8 @@
       <c r="G148" s="9">
         <v>0</v>
       </c>
-      <c r="H148" s="9">
-        <v>0</v>
+      <c r="H148" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I148" s="9" t="s">
         <v>17</v>
@@ -5836,7 +5836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>23</v>
       </c>
@@ -5845,37 +5845,37 @@
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11">
-        <v>-286194</v>
+        <v>-338143</v>
       </c>
       <c r="F149" s="11">
-        <v>-338143</v>
+        <v>-267783</v>
       </c>
       <c r="G149" s="11">
-        <v>-267783</v>
+        <v>-278418</v>
       </c>
       <c r="H149" s="11">
-        <v>-278418</v>
+        <v>-472797</v>
       </c>
       <c r="I149" s="11">
-        <v>-472797</v>
+        <v>-732549</v>
       </c>
       <c r="J149" s="11">
-        <v>-732549</v>
+        <v>-357277</v>
       </c>
       <c r="K149" s="11">
-        <v>-357277</v>
+        <v>-683693</v>
       </c>
       <c r="L149" s="11">
-        <v>-683693</v>
+        <v>-723936</v>
       </c>
       <c r="M149" s="11">
-        <v>-723936</v>
+        <v>-987622</v>
       </c>
       <c r="N149" s="11">
-        <v>-987622</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-577665</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>25</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>26</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>27</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>28</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>29</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>30</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>31</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>32</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>33</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>34</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>35</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>36</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>37</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>47</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
         <v>41</v>
       </c>
@@ -6430,37 +6430,37 @@
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9">
-        <v>-591180</v>
+        <v>-610428</v>
       </c>
       <c r="F164" s="9">
-        <v>-610428</v>
+        <v>-526983</v>
       </c>
       <c r="G164" s="9">
-        <v>-526983</v>
+        <v>-874941</v>
       </c>
       <c r="H164" s="9">
-        <v>-874941</v>
+        <v>-2233626</v>
       </c>
       <c r="I164" s="9">
-        <v>-2233626</v>
+        <v>-1367718</v>
       </c>
       <c r="J164" s="9">
-        <v>-1367718</v>
+        <v>-846445</v>
       </c>
       <c r="K164" s="9">
-        <v>-846445</v>
+        <v>-1475453</v>
       </c>
       <c r="L164" s="9">
-        <v>-1475453</v>
+        <v>-1475901</v>
       </c>
       <c r="M164" s="9">
-        <v>-1475901</v>
+        <v>-2330194</v>
       </c>
       <c r="N164" s="9">
-        <v>-2330194</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-910794</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
         <v>42</v>
       </c>
@@ -6469,74 +6469,74 @@
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="11">
-        <v>-250843</v>
+        <v>-280140</v>
       </c>
       <c r="F165" s="11">
-        <v>-280140</v>
+        <v>-180832</v>
       </c>
       <c r="G165" s="11">
-        <v>-180832</v>
+        <v>-275523</v>
       </c>
       <c r="H165" s="11">
-        <v>-275523</v>
+        <v>-447605</v>
       </c>
       <c r="I165" s="11">
-        <v>-447605</v>
+        <v>-410670</v>
       </c>
       <c r="J165" s="11">
-        <v>-410670</v>
+        <v>-618249</v>
       </c>
       <c r="K165" s="11">
-        <v>-618249</v>
+        <v>-569025</v>
       </c>
       <c r="L165" s="11">
-        <v>-569025</v>
+        <v>-585509</v>
       </c>
       <c r="M165" s="11">
-        <v>-585509</v>
+        <v>-456319</v>
       </c>
       <c r="N165" s="11">
-        <v>-456319</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1133712</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="13">
-        <v>-1267933</v>
+        <v>-1456543</v>
       </c>
       <c r="F166" s="13">
-        <v>-1456543</v>
+        <v>-1060037</v>
       </c>
       <c r="G166" s="13">
-        <v>-1060037</v>
+        <v>-1619907</v>
       </c>
       <c r="H166" s="13">
-        <v>-1619907</v>
+        <v>-3477060</v>
       </c>
       <c r="I166" s="13">
-        <v>-3477060</v>
+        <v>-2929253</v>
       </c>
       <c r="J166" s="13">
-        <v>-2929253</v>
+        <v>-1911398</v>
       </c>
       <c r="K166" s="13">
-        <v>-1911398</v>
+        <v>-3075672</v>
       </c>
       <c r="L166" s="13">
-        <v>-3075672</v>
+        <v>-3192321</v>
       </c>
       <c r="M166" s="13">
-        <v>-3192321</v>
+        <v>-3956666</v>
       </c>
       <c r="N166" s="13">
-        <v>-3956666</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3184789</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -6551,7 +6551,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -6566,7 +6566,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -6581,7 +6581,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B170" s="7" t="s">
         <v>55</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -6633,7 +6633,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>15</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>18</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="8" t="s">
         <v>19</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="s">
         <v>20</v>
       </c>
@@ -6759,37 +6759,37 @@
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="11">
-        <v>152148</v>
+        <v>208177</v>
       </c>
       <c r="F175" s="11">
-        <v>208177</v>
+        <v>149540</v>
       </c>
       <c r="G175" s="11">
-        <v>149540</v>
+        <v>152615</v>
       </c>
       <c r="H175" s="11">
-        <v>152615</v>
+        <v>152325</v>
       </c>
       <c r="I175" s="11">
-        <v>152325</v>
+        <v>94950</v>
       </c>
       <c r="J175" s="11">
-        <v>94950</v>
+        <v>275641</v>
       </c>
       <c r="K175" s="11">
-        <v>275641</v>
+        <v>427048</v>
       </c>
       <c r="L175" s="11">
-        <v>427048</v>
+        <v>198182</v>
       </c>
       <c r="M175" s="11">
-        <v>198182</v>
+        <v>367952</v>
       </c>
       <c r="N175" s="11">
-        <v>367952</v>
-      </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+        <v>177426</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="8" t="s">
         <v>21</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>22</v>
       </c>
@@ -6837,37 +6837,37 @@
       </c>
       <c r="D177" s="11"/>
       <c r="E177" s="11">
-        <v>78718</v>
+        <v>41806</v>
       </c>
       <c r="F177" s="11">
-        <v>41806</v>
+        <v>64450</v>
       </c>
       <c r="G177" s="11">
-        <v>64450</v>
+        <v>52406</v>
       </c>
       <c r="H177" s="11">
-        <v>52406</v>
+        <v>77478</v>
       </c>
       <c r="I177" s="11">
-        <v>77478</v>
+        <v>38142</v>
       </c>
       <c r="J177" s="11">
-        <v>38142</v>
+        <v>117623</v>
       </c>
       <c r="K177" s="11">
-        <v>117623</v>
+        <v>70965</v>
       </c>
       <c r="L177" s="11">
-        <v>70965</v>
+        <v>45801</v>
       </c>
       <c r="M177" s="11">
-        <v>45801</v>
+        <v>60327</v>
       </c>
       <c r="N177" s="11">
-        <v>60327</v>
-      </c>
-    </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84650</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
         <v>45</v>
       </c>
@@ -6884,8 +6884,8 @@
       <c r="G178" s="9">
         <v>0</v>
       </c>
-      <c r="H178" s="9">
-        <v>0</v>
+      <c r="H178" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I178" s="9" t="s">
         <v>17</v>
@@ -6906,7 +6906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>23</v>
       </c>
@@ -6915,37 +6915,37 @@
       </c>
       <c r="D179" s="11"/>
       <c r="E179" s="11">
-        <v>274727</v>
+        <v>373026</v>
       </c>
       <c r="F179" s="11">
-        <v>373026</v>
+        <v>166714</v>
       </c>
       <c r="G179" s="11">
-        <v>166714</v>
+        <v>305347</v>
       </c>
       <c r="H179" s="11">
-        <v>305347</v>
+        <v>243262</v>
       </c>
       <c r="I179" s="11">
-        <v>243262</v>
+        <v>554086</v>
       </c>
       <c r="J179" s="11">
-        <v>554086</v>
+        <v>111575</v>
       </c>
       <c r="K179" s="11">
-        <v>111575</v>
+        <v>294134</v>
       </c>
       <c r="L179" s="11">
-        <v>294134</v>
+        <v>532153</v>
       </c>
       <c r="M179" s="11">
-        <v>532153</v>
+        <v>623147</v>
       </c>
       <c r="N179" s="11">
-        <v>623147</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+        <v>585518</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>25</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>26</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
         <v>27</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>28</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="8" t="s">
         <v>29</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
         <v>30</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="8" t="s">
         <v>31</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="s">
         <v>32</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="8" t="s">
         <v>33</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="s">
         <v>34</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>35</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
         <v>36</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>37</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>47</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>41</v>
       </c>
@@ -7500,37 +7500,37 @@
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="9">
-        <v>637444</v>
+        <v>694283</v>
       </c>
       <c r="F194" s="9">
-        <v>694283</v>
+        <v>632406</v>
       </c>
       <c r="G194" s="9">
-        <v>632406</v>
+        <v>829884</v>
       </c>
       <c r="H194" s="9">
-        <v>829884</v>
+        <v>4150058</v>
       </c>
       <c r="I194" s="9">
-        <v>4150058</v>
+        <v>2202138</v>
       </c>
       <c r="J194" s="9">
-        <v>2202138</v>
+        <v>889118</v>
       </c>
       <c r="K194" s="9">
-        <v>889118</v>
+        <v>1404516</v>
       </c>
       <c r="L194" s="9">
-        <v>1404516</v>
+        <v>1685696</v>
       </c>
       <c r="M194" s="9">
-        <v>1685696</v>
+        <v>1237192</v>
       </c>
       <c r="N194" s="9">
-        <v>1237192</v>
-      </c>
-    </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2035109</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>42</v>
       </c>
@@ -7539,71 +7539,71 @@
       </c>
       <c r="D195" s="11"/>
       <c r="E195" s="11">
-        <v>354046</v>
+        <v>129594</v>
       </c>
       <c r="F195" s="11">
-        <v>129594</v>
+        <v>281857</v>
       </c>
       <c r="G195" s="11">
-        <v>281857</v>
+        <v>234286</v>
       </c>
       <c r="H195" s="11">
-        <v>234286</v>
+        <v>354644</v>
       </c>
       <c r="I195" s="11">
-        <v>354644</v>
+        <v>353953</v>
       </c>
       <c r="J195" s="11">
-        <v>353953</v>
+        <v>44589</v>
       </c>
       <c r="K195" s="11">
-        <v>44589</v>
+        <v>357210</v>
       </c>
       <c r="L195" s="11">
-        <v>357210</v>
+        <v>569451</v>
       </c>
       <c r="M195" s="11">
-        <v>569451</v>
+        <v>781957</v>
       </c>
       <c r="N195" s="11">
-        <v>781957</v>
-      </c>
-    </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+        <v>372823</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
       <c r="E196" s="13">
-        <v>1497083</v>
+        <v>1446886</v>
       </c>
       <c r="F196" s="13">
-        <v>1446886</v>
+        <v>1294967</v>
       </c>
       <c r="G196" s="13">
-        <v>1294967</v>
+        <v>1574538</v>
       </c>
       <c r="H196" s="13">
-        <v>1574538</v>
+        <v>4977767</v>
       </c>
       <c r="I196" s="13">
-        <v>4977767</v>
+        <v>3243269</v>
       </c>
       <c r="J196" s="13">
-        <v>3243269</v>
+        <v>1438546</v>
       </c>
       <c r="K196" s="13">
-        <v>1438546</v>
+        <v>2553873</v>
       </c>
       <c r="L196" s="13">
-        <v>2553873</v>
+        <v>3031283</v>
       </c>
       <c r="M196" s="13">
-        <v>3031283</v>
+        <v>3070575</v>
       </c>
       <c r="N196" s="13">
-        <v>3070575</v>
+        <v>3255526</v>
       </c>
     </row>
   </sheetData>
